--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-35/Dakshiner Pac.-35,New.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-35/Dakshiner Pac.-35,New.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\Protective Work Latest\Flood Fuse -14 (For Working)-2\Pac-35\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Detail(Lot-2)" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Abst(Lot-2)'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Detail(Lot-2)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -897,12 +902,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,12 +1047,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -1232,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1649,6 +1660,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1658,54 +1718,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1715,7 +1727,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1777,7 +1791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1809,9 +1823,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1843,6 +1858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2018,90 +2034,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="95.25" customHeight="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
       <c r="O1" s="23"/>
     </row>
-    <row r="2" spans="1:15" ht="29.25" customHeight="1">
+    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
       <c r="L3" s="25"/>
-      <c r="N3" s="206">
+      <c r="N3" s="184">
         <f>'Abst(Lot-2)'!F28</f>
         <v>91460737.196406364</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="31" t="s">
         <v>26</v>
@@ -2117,7 +2133,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="127"/>
       <c r="B5" s="89" t="s">
         <v>92</v>
@@ -2133,7 +2149,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
       <c r="B6" s="129" t="s">
         <v>37</v>
@@ -2149,7 +2165,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="127"/>
       <c r="B7" s="121" t="s">
         <v>29</v>
@@ -2178,7 +2194,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="128" t="s">
         <v>27</v>
@@ -2194,7 +2210,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="31" t="s">
         <v>154</v>
@@ -2210,7 +2226,7 @@
       <c r="K9" s="29"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="31" t="s">
         <v>28</v>
@@ -2226,7 +2242,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="180" t="s">
         <v>29</v>
@@ -2255,7 +2271,7 @@
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="180" t="s">
         <v>29</v>
@@ -2284,7 +2300,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="180" t="s">
         <v>29</v>
@@ -2313,7 +2329,7 @@
       <c r="K13" s="29"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="180" t="s">
         <v>29</v>
@@ -2342,7 +2358,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="180" t="s">
         <v>29</v>
@@ -2371,7 +2387,7 @@
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="180" t="s">
         <v>29</v>
@@ -2400,7 +2416,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="180" t="s">
         <v>29</v>
@@ -2427,7 +2443,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="180" t="s">
         <v>29</v>
@@ -2454,7 +2470,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="182" t="s">
         <v>29</v>
@@ -2483,7 +2499,7 @@
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -2509,7 +2525,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="155"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="41"/>
       <c r="C21" s="37" t="s">
@@ -2525,7 +2541,7 @@
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>29</v>
@@ -2554,7 +2570,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="121" t="s">
         <v>29</v>
@@ -2584,7 +2600,7 @@
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -2609,7 +2625,7 @@
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="41"/>
       <c r="C25" s="32" t="s">
@@ -2625,7 +2641,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="32" t="s">
         <v>29</v>
@@ -2654,7 +2670,7 @@
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
@@ -2675,7 +2691,7 @@
       <c r="K27" s="29"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="43" t="s">
         <v>41</v>
@@ -2708,7 +2724,7 @@
         <v>193.16666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2724,25 +2740,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="144" customHeight="1">
+    <row r="30" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="191"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="190"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
@@ -2756,7 +2772,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="54" t="s">
         <v>27</v>
@@ -2772,7 +2788,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="56" t="s">
         <v>46</v>
@@ -2788,7 +2804,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="28" t="s">
         <v>155</v>
@@ -2810,7 +2826,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="29" t="s">
         <v>39</v>
@@ -2826,7 +2842,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="58" t="s">
         <v>154</v>
@@ -2846,7 +2862,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="29" t="s">
         <v>37</v>
@@ -2862,7 +2878,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="29" t="s">
         <v>93</v>
@@ -2883,7 +2899,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="63" t="s">
         <v>154</v>
@@ -2904,7 +2920,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28" t="s">
@@ -2925,15 +2941,15 @@
       <c r="K40" s="69"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
-      <c r="B41" s="201" t="s">
+      <c r="B41" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -2941,7 +2957,7 @@
       <c r="K41" s="69"/>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="28" t="s">
         <v>49</v>
@@ -2957,7 +2973,7 @@
       <c r="K42" s="69"/>
       <c r="L42" s="26"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="68">
         <f>E40</f>
@@ -2987,7 +3003,7 @@
       <c r="K43" s="69"/>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="28" t="s">
         <v>52</v>
@@ -3003,7 +3019,7 @@
       <c r="K44" s="69"/>
       <c r="L44" s="26"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="28" t="s">
         <v>53</v>
@@ -3035,7 +3051,7 @@
       <c r="K45" s="69"/>
       <c r="L45" s="26"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="28"/>
       <c r="C46" s="38">
@@ -3067,7 +3083,7 @@
       <c r="K46" s="69"/>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -3088,7 +3104,7 @@
       <c r="K47" s="69"/>
       <c r="L47" s="26"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="28" t="s">
         <v>55</v>
@@ -3112,7 +3128,7 @@
       <c r="K48" s="69"/>
       <c r="L48" s="26"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="75"/>
       <c r="B49" s="76" t="s">
         <v>57</v>
@@ -3143,7 +3159,7 @@
         <v>28020.686750000012</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1">
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78"/>
       <c r="B50" s="27"/>
       <c r="C50" s="79"/>
@@ -3159,25 +3175,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="158.25" customHeight="1">
+    <row r="51" spans="1:12" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="195" t="s">
+      <c r="B51" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="185"/>
+      <c r="K51" s="185"/>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="29"/>
       <c r="C52" s="28" t="s">
@@ -3201,7 +3217,7 @@
         <v>28020.686750000012</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="78"/>
       <c r="B53" s="51"/>
       <c r="C53" s="27"/>
@@ -3217,25 +3233,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="42.75" customHeight="1">
+    <row r="54" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="190" t="s">
+      <c r="B54" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="190"/>
-      <c r="J54" s="190"/>
-      <c r="K54" s="190"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="188"/>
+      <c r="J54" s="188"/>
+      <c r="K54" s="188"/>
       <c r="L54" s="26"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28" t="s">
@@ -3259,7 +3275,7 @@
         <v>28020.686750000012</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="49"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -3275,26 +3291,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="55.5" customHeight="1">
-      <c r="A57" s="184" t="s">
+    <row r="57" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="201" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="190"/>
-      <c r="D57" s="190"/>
-      <c r="E57" s="190"/>
-      <c r="F57" s="190"/>
-      <c r="G57" s="190"/>
-      <c r="H57" s="190"/>
-      <c r="I57" s="190"/>
-      <c r="J57" s="190"/>
-      <c r="K57" s="191"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="190"/>
       <c r="L57" s="132"/>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A58" s="185"/>
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="202"/>
       <c r="B58" s="89" t="s">
         <v>92</v>
       </c>
@@ -3309,8 +3325,8 @@
       <c r="K58" s="124"/>
       <c r="L58" s="115"/>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A59" s="185"/>
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="202"/>
       <c r="B59" s="129" t="s">
         <v>37</v>
       </c>
@@ -3325,8 +3341,8 @@
       <c r="K59" s="124"/>
       <c r="L59" s="115"/>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A60" s="185"/>
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="202"/>
       <c r="B60" s="126" t="s">
         <v>29</v>
       </c>
@@ -3355,16 +3371,16 @@
       <c r="K60" s="124"/>
       <c r="L60" s="115"/>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A61" s="185"/>
-      <c r="B61" s="187" t="s">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="202"/>
+      <c r="B61" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
       <c r="H61" s="131">
         <v>13.79</v>
       </c>
@@ -3375,8 +3391,8 @@
       <c r="K61" s="124"/>
       <c r="L61" s="115"/>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A62" s="185"/>
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="202"/>
       <c r="B62" s="28" t="s">
         <v>96</v>
       </c>
@@ -3415,8 +3431,8 @@
         <v>854.97999999999956</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A63" s="186"/>
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="203"/>
       <c r="B63" s="133"/>
       <c r="C63" s="133"/>
       <c r="D63" s="133"/>
@@ -3433,25 +3449,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="189" customHeight="1">
+    <row r="64" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="193" t="s">
+      <c r="B64" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="193"/>
-      <c r="D64" s="193"/>
-      <c r="E64" s="193"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="193"/>
-      <c r="H64" s="193"/>
-      <c r="I64" s="193"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="193"/>
+      <c r="C64" s="194"/>
+      <c r="D64" s="194"/>
+      <c r="E64" s="194"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="194"/>
+      <c r="I64" s="194"/>
+      <c r="J64" s="194"/>
+      <c r="K64" s="194"/>
       <c r="L64" s="83"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
       <c r="B65" s="54" t="s">
         <v>64</v>
@@ -3467,7 +3483,7 @@
       <c r="K65" s="28"/>
       <c r="L65" s="26"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="89" t="s">
         <v>92</v>
@@ -3483,7 +3499,7 @@
       <c r="K66" s="28"/>
       <c r="L66" s="26"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="129" t="s">
         <v>37</v>
@@ -3499,7 +3515,7 @@
       <c r="K67" s="28"/>
       <c r="L67" s="26"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="126" t="s">
         <v>29</v>
@@ -3529,16 +3545,16 @@
       <c r="K68" s="28"/>
       <c r="L68" s="26"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
-      <c r="B69" s="187" t="s">
+      <c r="B69" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="188"/>
-      <c r="G69" s="188"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="199"/>
+      <c r="F69" s="199"/>
+      <c r="G69" s="199"/>
       <c r="H69" s="131">
         <v>15.59</v>
       </c>
@@ -3549,7 +3565,7 @@
       <c r="K69" s="28"/>
       <c r="L69" s="26"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="28" t="s">
         <v>70</v>
@@ -3580,13 +3596,13 @@
       <c r="K70" s="28"/>
       <c r="L70" s="26"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="30"/>
       <c r="B71" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
       <c r="E71" s="34"/>
       <c r="F71" s="85"/>
       <c r="G71" s="34"/>
@@ -3596,7 +3612,7 @@
       <c r="K71" s="28"/>
       <c r="L71" s="26"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="28" t="s">
         <v>65</v>
@@ -3616,7 +3632,7 @@
       <c r="K72" s="28"/>
       <c r="L72" s="26"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="30"/>
       <c r="B73" s="28" t="s">
         <v>66</v>
@@ -3639,7 +3655,7 @@
       <c r="K73" s="28"/>
       <c r="L73" s="26"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="30"/>
       <c r="B74" s="28" t="s">
         <v>33</v>
@@ -3662,7 +3678,7 @@
       <c r="K74" s="28"/>
       <c r="L74" s="26"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="30"/>
       <c r="B75" s="196" t="s">
         <v>67</v>
@@ -3684,7 +3700,7 @@
       <c r="K75" s="28"/>
       <c r="L75" s="26"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="30"/>
       <c r="B76" s="32"/>
       <c r="C76" s="33"/>
@@ -3707,7 +3723,7 @@
       <c r="K76" s="28"/>
       <c r="L76" s="26"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="30"/>
       <c r="B77" s="28" t="s">
         <v>68</v>
@@ -3727,7 +3743,7 @@
       <c r="K77" s="28"/>
       <c r="L77" s="26"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="88" t="s">
         <v>70</v>
@@ -3761,7 +3777,7 @@
         <v>91344.35</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="78"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
@@ -3784,25 +3800,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="52.5" customHeight="1">
+    <row r="80" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="82" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="190"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="191"/>
+      <c r="C80" s="188"/>
+      <c r="D80" s="188"/>
+      <c r="E80" s="188"/>
+      <c r="F80" s="188"/>
+      <c r="G80" s="188"/>
+      <c r="H80" s="188"/>
+      <c r="I80" s="188"/>
+      <c r="J80" s="188"/>
+      <c r="K80" s="190"/>
       <c r="L80" s="139"/>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="81"/>
       <c r="B81" s="89" t="s">
         <v>92</v>
@@ -3818,7 +3834,7 @@
       <c r="K81" s="124"/>
       <c r="L81" s="77"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="129" t="s">
         <v>37</v>
@@ -3834,7 +3850,7 @@
       <c r="K82" s="28"/>
       <c r="L82" s="77"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="126" t="s">
         <v>29</v>
@@ -3864,16 +3880,16 @@
       <c r="K83" s="28"/>
       <c r="L83" s="77"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
-      <c r="B84" s="187" t="s">
+      <c r="B84" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="188"/>
-      <c r="D84" s="188"/>
-      <c r="E84" s="188"/>
-      <c r="F84" s="188"/>
-      <c r="G84" s="188"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
+      <c r="F84" s="199"/>
+      <c r="G84" s="199"/>
       <c r="H84" s="131">
         <v>13.79</v>
       </c>
@@ -3884,7 +3900,7 @@
       <c r="K84" s="28"/>
       <c r="L84" s="77"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="28" t="s">
         <v>96</v>
@@ -3921,7 +3937,7 @@
       </c>
       <c r="L85" s="77"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="125"/>
       <c r="C86" s="126"/>
@@ -3937,7 +3953,7 @@
       </c>
       <c r="L86" s="77"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="95" t="s">
         <v>101</v>
@@ -3953,7 +3969,7 @@
       <c r="K87" s="123"/>
       <c r="L87" s="111"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="30"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -3984,7 +4000,7 @@
         <v>427.48999999999978</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="130"/>
       <c r="C89" s="130"/>
@@ -4000,23 +4016,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="30"/>
-      <c r="B90" s="190" t="s">
+      <c r="B90" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="192"/>
-      <c r="K90" s="192"/>
+      <c r="C90" s="193"/>
+      <c r="D90" s="193"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="193"/>
+      <c r="K90" s="193"/>
       <c r="L90" s="26"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="30"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
@@ -4040,7 +4056,7 @@
         <v>427.48999999999978</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="78"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -4056,25 +4072,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="81.75" customHeight="1">
+    <row r="93" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="190" t="s">
+      <c r="B93" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="192"/>
-      <c r="D93" s="192"/>
-      <c r="E93" s="192"/>
-      <c r="F93" s="192"/>
-      <c r="G93" s="192"/>
-      <c r="H93" s="192"/>
-      <c r="I93" s="192"/>
-      <c r="J93" s="192"/>
-      <c r="K93" s="192"/>
+      <c r="C93" s="193"/>
+      <c r="D93" s="193"/>
+      <c r="E93" s="193"/>
+      <c r="F93" s="193"/>
+      <c r="G93" s="193"/>
+      <c r="H93" s="193"/>
+      <c r="I93" s="193"/>
+      <c r="J93" s="193"/>
+      <c r="K93" s="193"/>
       <c r="L93" s="25"/>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="81"/>
       <c r="B94" s="124"/>
       <c r="C94" s="140"/>
@@ -4088,7 +4104,7 @@
       <c r="K94" s="140"/>
       <c r="L94" s="30"/>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="81"/>
       <c r="B95" s="89" t="s">
         <v>92</v>
@@ -4104,7 +4120,7 @@
       <c r="K95" s="140"/>
       <c r="L95" s="30"/>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="81"/>
       <c r="B96" s="129" t="s">
         <v>37</v>
@@ -4120,7 +4136,7 @@
       <c r="K96" s="140"/>
       <c r="L96" s="30"/>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="81"/>
       <c r="B97" s="126" t="s">
         <v>29</v>
@@ -4150,16 +4166,16 @@
       <c r="K97" s="140"/>
       <c r="L97" s="30"/>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="81"/>
-      <c r="B98" s="198" t="s">
+      <c r="B98" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="195"/>
-      <c r="D98" s="195"/>
-      <c r="E98" s="195"/>
-      <c r="F98" s="195"/>
-      <c r="G98" s="195"/>
+      <c r="C98" s="185"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
+      <c r="F98" s="185"/>
+      <c r="G98" s="185"/>
       <c r="H98" s="131">
         <v>13.79</v>
       </c>
@@ -4170,7 +4186,7 @@
       <c r="K98" s="140"/>
       <c r="L98" s="30"/>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="81"/>
       <c r="B99" s="28" t="s">
         <v>104</v>
@@ -4201,7 +4217,7 @@
       <c r="K99" s="140"/>
       <c r="L99" s="30"/>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="81"/>
       <c r="B100" s="28" t="s">
         <v>105</v>
@@ -4229,7 +4245,7 @@
       <c r="K100" s="140"/>
       <c r="L100" s="30"/>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="81"/>
       <c r="B101" s="29" t="s">
         <v>106</v>
@@ -4261,7 +4277,7 @@
         <v>50764.437499999971</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="81"/>
       <c r="B102" s="28" t="s">
         <v>76</v>
@@ -4293,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="147"/>
       <c r="B103" s="145"/>
       <c r="C103" s="27"/>
@@ -4314,7 +4330,7 @@
       <c r="K103" s="148"/>
       <c r="L103" s="78"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="30"/>
       <c r="B104" s="31" t="s">
         <v>71</v>
@@ -4330,7 +4346,7 @@
       <c r="K104" s="29"/>
       <c r="L104" s="30"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="30"/>
       <c r="B105" s="31" t="s">
         <v>72</v>
@@ -4346,7 +4362,7 @@
       <c r="K105" s="29"/>
       <c r="L105" s="30"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="75"/>
       <c r="B106" s="89" t="s">
         <v>27</v>
@@ -4362,7 +4378,7 @@
       <c r="K106" s="29"/>
       <c r="L106" s="30"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="30"/>
       <c r="B107" s="28" t="s">
         <v>155</v>
@@ -4382,7 +4398,7 @@
       <c r="K107" s="29"/>
       <c r="L107" s="30"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="30"/>
       <c r="B108" s="28" t="s">
         <v>39</v>
@@ -4398,7 +4414,7 @@
       <c r="K108" s="29"/>
       <c r="L108" s="30"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="30"/>
       <c r="B109" s="58" t="s">
         <v>154</v>
@@ -4418,7 +4434,7 @@
       <c r="K109" s="29"/>
       <c r="L109" s="30"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="30"/>
       <c r="B110" s="28" t="s">
         <v>37</v>
@@ -4434,7 +4450,7 @@
       <c r="K110" s="29"/>
       <c r="L110" s="30"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="30"/>
       <c r="B111" s="31" t="s">
         <v>93</v>
@@ -4455,7 +4471,7 @@
       <c r="K111" s="29"/>
       <c r="L111" s="30"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="30"/>
       <c r="B112" s="63" t="s">
         <v>154</v>
@@ -4475,7 +4491,7 @@
       <c r="K112" s="29"/>
       <c r="L112" s="30"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="30"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28" t="s">
@@ -4498,7 +4514,7 @@
       <c r="K113" s="29"/>
       <c r="L113" s="30"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="30"/>
       <c r="B114" s="95" t="s">
         <v>73</v>
@@ -4510,7 +4526,7 @@
       <c r="K114" s="29"/>
       <c r="L114" s="30"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="30"/>
       <c r="B115" s="32"/>
       <c r="C115" s="33" t="s">
@@ -4542,7 +4558,7 @@
       <c r="K115" s="29"/>
       <c r="L115" s="30"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="95"/>
       <c r="B116" s="98" t="s">
         <v>76</v>
@@ -4575,7 +4591,7 @@
         <v>19633.333333333325</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="78"/>
       <c r="B117" s="37"/>
       <c r="C117" s="36"/>
@@ -4598,7 +4614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="30"/>
       <c r="B118" s="31" t="s">
         <v>79</v>
@@ -4614,7 +4630,7 @@
       <c r="K118" s="29"/>
       <c r="L118" s="30"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="30"/>
       <c r="B119" s="31" t="s">
         <v>80</v>
@@ -4630,7 +4646,7 @@
       <c r="K119" s="29"/>
       <c r="L119" s="30"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="30"/>
       <c r="B120" s="89" t="s">
         <v>27</v>
@@ -4646,7 +4662,7 @@
       <c r="K120" s="29"/>
       <c r="L120" s="30"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="30"/>
       <c r="B121" s="28" t="s">
         <v>155</v>
@@ -4668,7 +4684,7 @@
       <c r="K121" s="29"/>
       <c r="L121" s="30"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="30"/>
       <c r="B122" s="28" t="s">
         <v>39</v>
@@ -4684,7 +4700,7 @@
       <c r="K122" s="29"/>
       <c r="L122" s="30"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="30"/>
       <c r="B123" s="84" t="s">
         <v>154</v>
@@ -4706,7 +4722,7 @@
       <c r="K123" s="29"/>
       <c r="L123" s="30"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="30"/>
       <c r="B124" s="28" t="s">
         <v>37</v>
@@ -4722,7 +4738,7 @@
       <c r="K124" s="29"/>
       <c r="L124" s="30"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="30"/>
       <c r="B125" s="105" t="s">
         <v>154</v>
@@ -4745,7 +4761,7 @@
       <c r="K125" s="29"/>
       <c r="L125" s="30"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="30"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28" t="s">
@@ -4765,7 +4781,7 @@
       <c r="K126" s="29"/>
       <c r="L126" s="26"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="30"/>
       <c r="B127" s="95" t="s">
         <v>73</v>
@@ -4780,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="78"/>
       <c r="B128" s="37"/>
       <c r="C128" s="100">
@@ -4811,25 +4827,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="43.5" customHeight="1">
+    <row r="129" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="195" t="s">
+      <c r="B129" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="195"/>
-      <c r="D129" s="195"/>
-      <c r="E129" s="195"/>
-      <c r="F129" s="195"/>
-      <c r="G129" s="195"/>
-      <c r="H129" s="195"/>
-      <c r="I129" s="195"/>
-      <c r="J129" s="195"/>
-      <c r="K129" s="195"/>
+      <c r="C129" s="185"/>
+      <c r="D129" s="185"/>
+      <c r="E129" s="185"/>
+      <c r="F129" s="185"/>
+      <c r="G129" s="185"/>
+      <c r="H129" s="185"/>
+      <c r="I129" s="185"/>
+      <c r="J129" s="185"/>
+      <c r="K129" s="185"/>
       <c r="L129" s="30"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="81"/>
       <c r="B130" s="28"/>
       <c r="C130" s="126" t="s">
@@ -4845,7 +4861,7 @@
       <c r="K130" s="126"/>
       <c r="L130" s="30"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="81"/>
       <c r="B131" s="28"/>
       <c r="C131" s="109">
@@ -4879,7 +4895,7 @@
       </c>
       <c r="L131" s="30"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="30"/>
       <c r="B132" s="28"/>
       <c r="C132" s="32" t="s">
@@ -4895,7 +4911,7 @@
       <c r="K132" s="32"/>
       <c r="L132" s="30"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="30"/>
       <c r="B133" s="28"/>
       <c r="C133" s="109">
@@ -4929,7 +4945,7 @@
       </c>
       <c r="L133" s="30"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="30"/>
       <c r="B134" s="28"/>
       <c r="C134" s="32" t="s">
@@ -4945,7 +4961,7 @@
       <c r="K134" s="32"/>
       <c r="L134" s="30"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="30"/>
       <c r="B135" s="28"/>
       <c r="C135" s="109">
@@ -4979,7 +4995,7 @@
       </c>
       <c r="L135" s="30"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="30"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -5000,7 +5016,7 @@
       </c>
       <c r="L136" s="30"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="30"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -5016,7 +5032,7 @@
       </c>
       <c r="L137" s="30"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="30"/>
       <c r="B138" s="28" t="s">
         <v>87</v>
@@ -5047,7 +5063,7 @@
         <v>1077.2809999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="78"/>
       <c r="B139" s="51"/>
       <c r="C139" s="51"/>
@@ -5065,7 +5081,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>19</v>
@@ -5081,7 +5097,7 @@
       <c r="K140" s="28"/>
       <c r="L140" s="26"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="30"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28" t="s">
@@ -5105,7 +5121,7 @@
         <v>1077.2809999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="78"/>
       <c r="B142" s="27"/>
       <c r="C142" s="27"/>
@@ -5121,25 +5137,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="159.75" customHeight="1">
+    <row r="143" spans="1:12" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="B143" s="190" t="s">
+      <c r="B143" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="192"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="192"/>
-      <c r="G143" s="192"/>
-      <c r="H143" s="192"/>
-      <c r="I143" s="192"/>
-      <c r="J143" s="192"/>
-      <c r="K143" s="192"/>
+      <c r="C143" s="193"/>
+      <c r="D143" s="193"/>
+      <c r="E143" s="193"/>
+      <c r="F143" s="193"/>
+      <c r="G143" s="193"/>
+      <c r="H143" s="193"/>
+      <c r="I143" s="193"/>
+      <c r="J143" s="193"/>
+      <c r="K143" s="193"/>
       <c r="L143" s="114"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="30"/>
       <c r="B144" s="116" t="s">
         <v>157</v>
@@ -5155,7 +5171,7 @@
       <c r="K144" s="29"/>
       <c r="L144" s="114"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="30"/>
       <c r="B145" s="174"/>
       <c r="C145" s="174"/>
@@ -5169,7 +5185,7 @@
       <c r="K145" s="29"/>
       <c r="L145" s="114"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="75"/>
       <c r="B146" s="89" t="s">
         <v>151</v>
@@ -5185,7 +5201,7 @@
       <c r="K146" s="29"/>
       <c r="L146" s="114"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="75"/>
       <c r="B147" s="89" t="s">
         <v>27</v>
@@ -5201,7 +5217,7 @@
       <c r="K147" s="29"/>
       <c r="L147" s="114"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="75"/>
       <c r="B148" s="28" t="s">
         <v>155</v>
@@ -5223,7 +5239,7 @@
       <c r="K148" s="29"/>
       <c r="L148" s="114"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="75"/>
       <c r="B149" s="28" t="s">
         <v>39</v>
@@ -5239,7 +5255,7 @@
       <c r="K149" s="29"/>
       <c r="L149" s="114"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="75"/>
       <c r="B150" s="84" t="s">
         <v>154</v>
@@ -5261,7 +5277,7 @@
       <c r="K150" s="29"/>
       <c r="L150" s="114"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="75"/>
       <c r="B151" s="28" t="s">
         <v>37</v>
@@ -5277,7 +5293,7 @@
       <c r="K151" s="29"/>
       <c r="L151" s="114"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="75"/>
       <c r="B152" s="105" t="s">
         <v>154</v>
@@ -5300,7 +5316,7 @@
       <c r="K152" s="29"/>
       <c r="L152" s="114"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="75"/>
       <c r="B153" s="175"/>
       <c r="C153" s="28" t="s">
@@ -5321,7 +5337,7 @@
       <c r="K153" s="29"/>
       <c r="L153" s="114"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="75"/>
       <c r="B154" s="176" t="s">
         <v>150</v>
@@ -5355,7 +5371,7 @@
       <c r="K154" s="29"/>
       <c r="L154" s="114"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="75"/>
       <c r="B155" s="88"/>
       <c r="C155" s="28"/>
@@ -5369,7 +5385,7 @@
       <c r="K155" s="29"/>
       <c r="L155" s="114"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="75"/>
       <c r="B156" s="89" t="s">
         <v>89</v>
@@ -5385,7 +5401,7 @@
       <c r="K156" s="29"/>
       <c r="L156" s="30"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="30"/>
       <c r="B157" s="89" t="s">
         <v>27</v>
@@ -5401,7 +5417,7 @@
       <c r="K157" s="29"/>
       <c r="L157" s="30"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="30"/>
       <c r="B158" s="28" t="s">
         <v>155</v>
@@ -5423,7 +5439,7 @@
       <c r="K158" s="29"/>
       <c r="L158" s="30"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="30"/>
       <c r="B159" s="28" t="s">
         <v>39</v>
@@ -5439,7 +5455,7 @@
       <c r="K159" s="29"/>
       <c r="L159" s="30"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="30"/>
       <c r="B160" s="84" t="s">
         <v>154</v>
@@ -5461,7 +5477,7 @@
       <c r="K160" s="29"/>
       <c r="L160" s="30"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="30"/>
       <c r="B161" s="28" t="s">
         <v>37</v>
@@ -5477,7 +5493,7 @@
       <c r="K161" s="29"/>
       <c r="L161" s="30"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="30"/>
       <c r="B162" s="105" t="s">
         <v>154</v>
@@ -5500,7 +5516,7 @@
       <c r="K162" s="29"/>
       <c r="L162" s="30"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="30"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28" t="s">
@@ -5523,7 +5539,7 @@
       <c r="K163" s="29"/>
       <c r="L163" s="30"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="30"/>
       <c r="B164" s="95" t="s">
         <v>90</v>
@@ -5535,7 +5551,7 @@
       <c r="K164" s="29"/>
       <c r="L164" s="30"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="30"/>
       <c r="B165" s="173"/>
       <c r="C165" s="100">
@@ -5567,7 +5583,7 @@
       <c r="K165" s="29"/>
       <c r="L165" s="30"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="30"/>
       <c r="B166" s="95"/>
       <c r="C166" s="33"/>
@@ -5580,7 +5596,7 @@
         <v>17540.111111111117</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="78"/>
       <c r="B167" s="130"/>
       <c r="C167" s="100"/>
@@ -5601,25 +5617,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="78.75" customHeight="1">
+    <row r="168" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="149">
         <v>11</v>
       </c>
       <c r="B168" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="C168" s="190"/>
-      <c r="D168" s="190"/>
-      <c r="E168" s="190"/>
-      <c r="F168" s="190"/>
-      <c r="G168" s="190"/>
-      <c r="H168" s="190"/>
-      <c r="I168" s="190"/>
-      <c r="J168" s="190"/>
-      <c r="K168" s="191"/>
+      <c r="C168" s="188"/>
+      <c r="D168" s="188"/>
+      <c r="E168" s="188"/>
+      <c r="F168" s="188"/>
+      <c r="G168" s="188"/>
+      <c r="H168" s="188"/>
+      <c r="I168" s="188"/>
+      <c r="J168" s="188"/>
+      <c r="K168" s="190"/>
       <c r="L168" s="117"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="30"/>
       <c r="B169" s="89" t="s">
         <v>92</v>
@@ -5635,7 +5651,7 @@
       <c r="K169" s="29"/>
       <c r="L169" s="117"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="30"/>
       <c r="B170" s="129" t="s">
         <v>37</v>
@@ -5651,7 +5667,7 @@
       <c r="K170" s="29"/>
       <c r="L170" s="117"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="30"/>
       <c r="B171" s="126" t="s">
         <v>29</v>
@@ -5681,7 +5697,7 @@
       <c r="K171" s="29"/>
       <c r="L171" s="117"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="30"/>
       <c r="B172" s="69" t="s">
         <v>113</v>
@@ -5697,7 +5713,7 @@
       <c r="K172" s="69"/>
       <c r="L172" s="26"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="30"/>
       <c r="B173" s="150">
         <f>G171</f>
@@ -5735,7 +5751,7 @@
         <v>74.399999999999963</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="30"/>
       <c r="B174" s="27"/>
       <c r="C174" s="27"/>
@@ -5751,25 +5767,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="84.75" customHeight="1">
+    <row r="175" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="B175" s="190" t="s">
+      <c r="B175" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="192"/>
-      <c r="D175" s="192"/>
-      <c r="E175" s="192"/>
-      <c r="F175" s="192"/>
-      <c r="G175" s="192"/>
-      <c r="H175" s="192"/>
-      <c r="I175" s="192"/>
-      <c r="J175" s="192"/>
-      <c r="K175" s="192"/>
+      <c r="C175" s="193"/>
+      <c r="D175" s="193"/>
+      <c r="E175" s="193"/>
+      <c r="F175" s="193"/>
+      <c r="G175" s="193"/>
+      <c r="H175" s="193"/>
+      <c r="I175" s="193"/>
+      <c r="J175" s="193"/>
+      <c r="K175" s="193"/>
       <c r="L175" s="118"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="26"/>
       <c r="B176" s="54" t="s">
         <v>157</v>
@@ -5785,7 +5801,7 @@
       <c r="K176" s="28"/>
       <c r="L176" s="26"/>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="26"/>
       <c r="B177" s="54" t="s">
         <v>27</v>
@@ -5801,7 +5817,7 @@
       <c r="K177" s="28"/>
       <c r="L177" s="26"/>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="26"/>
       <c r="B178" s="32" t="s">
         <v>29</v>
@@ -5830,7 +5846,7 @@
       <c r="K178" s="28"/>
       <c r="L178" s="26"/>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="26"/>
       <c r="B179" s="32" t="s">
         <v>29</v>
@@ -5859,7 +5875,7 @@
       <c r="K179" s="28"/>
       <c r="L179" s="26"/>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="26"/>
       <c r="B180" s="32" t="s">
         <v>29</v>
@@ -5888,7 +5904,7 @@
       <c r="K180" s="28"/>
       <c r="L180" s="26"/>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="26"/>
       <c r="B181" s="32" t="s">
         <v>29</v>
@@ -5917,7 +5933,7 @@
       <c r="K181" s="28"/>
       <c r="L181" s="26"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="26"/>
       <c r="B182" s="32" t="s">
         <v>29</v>
@@ -5946,7 +5962,7 @@
       <c r="K182" s="28"/>
       <c r="L182" s="26"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="26"/>
       <c r="B183" s="32" t="s">
         <v>29</v>
@@ -5975,7 +5991,7 @@
       <c r="K183" s="28"/>
       <c r="L183" s="77"/>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="26"/>
       <c r="B184" s="32" t="s">
         <v>29</v>
@@ -6002,7 +6018,7 @@
       <c r="K184" s="28"/>
       <c r="L184" s="115"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="26"/>
       <c r="B185" s="32" t="s">
         <v>29</v>
@@ -6029,7 +6045,7 @@
       <c r="K185" s="28"/>
       <c r="L185" s="26"/>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="26"/>
       <c r="B186" s="35" t="s">
         <v>29</v>
@@ -6058,7 +6074,7 @@
       <c r="K186" s="28"/>
       <c r="L186" s="26"/>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="26"/>
       <c r="B187" s="32"/>
       <c r="C187" s="33"/>
@@ -6083,7 +6099,7 @@
       <c r="K187" s="28"/>
       <c r="L187" s="26"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="26"/>
       <c r="B188" s="41"/>
       <c r="C188" s="37" t="s">
@@ -6099,7 +6115,7 @@
       <c r="K188" s="28"/>
       <c r="L188" s="26"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="26"/>
       <c r="B189" s="32" t="s">
         <v>29</v>
@@ -6128,7 +6144,7 @@
       <c r="K189" s="28"/>
       <c r="L189" s="26"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="26"/>
       <c r="B190" s="41"/>
       <c r="C190" s="32" t="s">
@@ -6144,7 +6160,7 @@
       <c r="K190" s="28"/>
       <c r="L190" s="26"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="26"/>
       <c r="B191" s="32" t="s">
         <v>29</v>
@@ -6173,7 +6189,7 @@
       <c r="K191" s="28"/>
       <c r="L191" s="26"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="26"/>
       <c r="B192" s="32"/>
       <c r="C192" s="33"/>
@@ -6194,7 +6210,7 @@
       <c r="K192" s="28"/>
       <c r="L192" s="26"/>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="26"/>
       <c r="B193" s="28" t="s">
         <v>91</v>
@@ -6214,7 +6230,7 @@
       <c r="K193" s="28"/>
       <c r="L193" s="30"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="26"/>
       <c r="B194" s="28" t="s">
         <v>70</v>
@@ -6248,7 +6264,7 @@
         <v>61020.750000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="26"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -6273,7 +6289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="49"/>
       <c r="B196" s="27"/>
       <c r="C196" s="27"/>
@@ -6289,12 +6305,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B80:K80"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B90:K90"/>
     <mergeCell ref="B175:K175"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B64:K64"/>
@@ -6307,11 +6322,12 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="B168:K168"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B41:F41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6320,36 +6336,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="147.75" customHeight="1">
-      <c r="A1" s="203" t="s">
+    <row r="1" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="204" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="25.5">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6370,7 +6386,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6390,7 +6406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1">
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>70971.365000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="306">
+    <row r="6" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -6434,7 +6450,7 @@
         <v>12045532.820090005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="297" customHeight="1">
+    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6456,7 +6472,7 @@
         <v>4418862.3004750013</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1">
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v>475511.05414750014</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="81.75" customHeight="1">
+    <row r="9" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -6500,7 +6516,7 @@
         <v>1084080.4407999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="376.5" customHeight="1">
+    <row r="10" spans="1:9" ht="376.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -6514,7 +6530,7 @@
       <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="207">
         <v>250.13</v>
       </c>
       <c r="F10" s="8">
@@ -6522,7 +6538,7 @@
         <v>22847962.265500002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.5" customHeight="1">
+    <row r="11" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -6544,7 +6560,7 @@
         <v>2467305.5588999987</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="50.1" customHeight="1">
+    <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>120</v>
@@ -6564,7 +6580,7 @@
         <v>2622749.4726999984</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="159.75" customHeight="1">
+    <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>121</v>
       </c>
@@ -6586,7 +6602,7 @@
         <v>23216100.201874986</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1">
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="21" t="s">
         <v>22</v>
@@ -6606,7 +6622,7 @@
         <v>7479318.3333333302</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="21" t="s">
         <v>23</v>
@@ -6626,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="70.5" customHeight="1">
+    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
@@ -6648,7 +6664,7 @@
         <v>1502839.3134299992</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27.75" customHeight="1">
+    <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="152" t="s">
         <v>19</v>
@@ -6668,7 +6684,7 @@
         <v>2353966.7130999989</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="302.25" customHeight="1">
+    <row r="18" spans="1:6" ht="302.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -6690,7 +6706,7 @@
         <v>5960129.755555558</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -6712,7 +6728,7 @@
         <v>960329.90399999951</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="162" customHeight="1">
+    <row r="20" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>127</v>
       </c>
@@ -6734,7 +6750,7 @@
         <v>2011854.1275000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="163.5" customHeight="1">
+    <row r="21" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="169" t="s">
         <v>130</v>
       </c>
@@ -6755,7 +6771,7 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="79.5" customHeight="1">
+    <row r="22" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="156" t="s">
         <v>133</v>
       </c>
@@ -6776,7 +6792,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="68.25" customHeight="1">
+    <row r="23" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="156" t="s">
         <v>135</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="92.25" customHeight="1">
+    <row r="24" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="156" t="s">
         <v>137</v>
       </c>
@@ -6818,7 +6834,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="153" customHeight="1">
+    <row r="25" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="156" t="s">
         <v>140</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="63.75" customHeight="1">
+    <row r="26" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="156" t="s">
         <v>142</v>
       </c>
@@ -6860,7 +6876,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="84" customHeight="1">
+    <row r="27" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="156" t="s">
         <v>144</v>
       </c>
@@ -6881,20 +6897,20 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1">
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="204" t="s">
+      <c r="C28" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="206"/>
       <c r="F28" s="22">
         <f>SUM(F5:F27)</f>
         <v>91460737.196406364</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6902,7 +6918,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6910,7 +6926,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6918,7 +6934,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6926,7 +6942,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6934,7 +6950,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6942,7 +6958,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6950,7 +6966,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6958,7 +6974,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6966,7 +6982,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6974,7 +6990,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6982,7 +6998,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6990,7 +7006,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6998,7 +7014,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7006,7 +7022,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7014,7 +7030,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7022,7 +7038,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7030,7 +7046,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7038,7 +7054,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7046,7 +7062,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7054,7 +7070,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7062,7 +7078,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7070,7 +7086,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7089,24 +7105,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
